--- a/Trainig_stability_assessment/Results/CV_Results_train.xlsx
+++ b/Trainig_stability_assessment/Results/CV_Results_train.xlsx
@@ -28,10 +28,10 @@
     <t>f_beta</t>
   </si>
   <si>
-    <t>0.9519806036823714\pm0.0033415296089910366</t>
-  </si>
-  <si>
-    <t>0.9737916547349114\pm0.003144987864092591</t>
+    <t>0.9674274570691791\pm0.00434306235693646</t>
+  </si>
+  <si>
+    <t>0.9693486407005603\pm0.007208002366898065</t>
   </si>
 </sst>
 </file>
